--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Mylren\Documents\GitHub\Eng-Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF321082-0ED5-43DA-9601-038BFA283970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89B2625-9D6D-4AB1-A56A-D44EDC36A834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A55B0A7-CAD9-48C3-AB1E-DE54A387BEEE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Externo</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Gerir orçamento</t>
   </si>
   <si>
-    <t>Cliente solicita orçamento de produto(s)</t>
-  </si>
-  <si>
     <t>WEG orça todos os produtos solicitados</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Cliente faz o pagamento do orçamento solicitado</t>
   </si>
   <si>
-    <t>WEG identifica o pagamento</t>
-  </si>
-  <si>
     <t>Cliente recebe produtos</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>WEG não recebe o pagamento</t>
   </si>
   <si>
-    <t>Cliente não rebece o(s) produto(s)</t>
-  </si>
-  <si>
     <t>Logística Reversa</t>
   </si>
   <si>
@@ -105,21 +96,9 @@
     <t>WEG solicita o envio dos produtos</t>
   </si>
   <si>
-    <t>Cliente envia produtos defeituosos</t>
-  </si>
-  <si>
     <t>WEG analisa as peças</t>
   </si>
   <si>
-    <t>WEG envia novos produtos</t>
-  </si>
-  <si>
-    <t>WEG não encontra defeitos</t>
-  </si>
-  <si>
-    <t>WEG devolve os mesmos produtos</t>
-  </si>
-  <si>
     <t>Previsível*</t>
   </si>
   <si>
@@ -141,19 +120,22 @@
     <t>x(4)</t>
   </si>
   <si>
-    <t>x(6)</t>
-  </si>
-  <si>
     <t>x(11)</t>
   </si>
   <si>
-    <t>x(12)</t>
-  </si>
-  <si>
-    <t>x(13)</t>
-  </si>
-  <si>
-    <t>x(14)</t>
+    <t>Cliente solicita orçamento de 1 ou mais produto(s)</t>
+  </si>
+  <si>
+    <t>WEG não envia o(s) produto(s)</t>
+  </si>
+  <si>
+    <t>x(5)</t>
+  </si>
+  <si>
+    <t>x(10)</t>
+  </si>
+  <si>
+    <t>WEG envia produtos</t>
   </si>
 </sst>
 </file>
@@ -375,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -404,38 +386,35 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,9 +428,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BF3D39-96D7-493A-95BA-18B1840FA236}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,384 +787,309 @@
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>31</v>
+      <c r="E2" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="9">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="B6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="19">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="16">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="14"/>
+      <c r="E6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="13"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="16">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="19">
         <v>5</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="16">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="19">
         <v>6</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="16">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="19">
         <v>7</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="14"/>
+      <c r="E9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="13"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="A10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="19">
         <v>8</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="14"/>
+      <c r="D10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
+      <c r="I10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="16">
+      <c r="A11" s="26"/>
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="19">
         <v>9</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>21</v>
+      <c r="D11" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="21"/>
+      <c r="I11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="20">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
-        <v>10</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="21"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20">
+        <v>11</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="20">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="17">
-        <v>11</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="17">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="23"/>
-      <c r="C15" s="17">
+      <c r="C15" s="20">
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="17">
-        <v>14</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="17">
-        <v>15</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="17">
-        <v>16</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="17">
-        <v>17</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Mylren\Documents\GitHub\Eng-Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89B2625-9D6D-4AB1-A56A-D44EDC36A834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1887C850-3B73-4423-87D6-C8A9CEB81F76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A55B0A7-CAD9-48C3-AB1E-DE54A387BEEE}"/>
   </bookViews>
@@ -415,6 +415,18 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -440,18 +452,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,22 +787,22 @@
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
@@ -829,10 +829,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9">
@@ -851,8 +851,8 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
@@ -869,8 +869,8 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="9">
         <v>3</v>
       </c>
@@ -887,10 +887,10 @@
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="31" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="19">
@@ -909,8 +909,8 @@
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="19">
         <v>5</v>
       </c>
@@ -927,8 +927,8 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="19">
         <v>6</v>
       </c>
@@ -945,8 +945,8 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="19">
@@ -965,8 +965,8 @@
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="19">
         <v>8</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
@@ -1003,10 +1003,10 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="20">
@@ -1025,8 +1025,8 @@
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="20">
         <v>11</v>
       </c>
@@ -1043,8 +1043,8 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="20">
         <v>12</v>
       </c>
@@ -1061,8 +1061,8 @@
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="20">
         <v>13</v>
       </c>
@@ -1080,16 +1080,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Mylren\Documents\GitHub\Eng-Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1887C850-3B73-4423-87D6-C8A9CEB81F76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65563CDC-5B3D-4C53-9F75-A93DEBFE6C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A55B0A7-CAD9-48C3-AB1E-DE54A387BEEE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Externo</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Gerir orçamento</t>
   </si>
   <si>
-    <t>WEG orça todos os produtos solicitados</t>
-  </si>
-  <si>
     <t>WEG envia orçamento para o cliente</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Cliente cancela o pedido dos produtos/peças</t>
   </si>
   <si>
-    <t>WEG não recebe o pagamento</t>
-  </si>
-  <si>
     <t>Logística Reversa</t>
   </si>
   <si>
@@ -123,12 +117,6 @@
     <t>x(11)</t>
   </si>
   <si>
-    <t>Cliente solicita orçamento de 1 ou mais produto(s)</t>
-  </si>
-  <si>
-    <t>WEG não envia o(s) produto(s)</t>
-  </si>
-  <si>
     <t>x(5)</t>
   </si>
   <si>
@@ -136,6 +124,21 @@
   </si>
   <si>
     <t>WEG envia produtos</t>
+  </si>
+  <si>
+    <t>Cliente solicita orçamento</t>
+  </si>
+  <si>
+    <t>Cliente não faz o pagamento do orçamento solicitado</t>
+  </si>
+  <si>
+    <t>Cliente não recebe produtos</t>
+  </si>
+  <si>
+    <t>x(6)</t>
+  </si>
+  <si>
+    <t>WEG orça os produtos solicitados</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,19 +813,19 @@
         <v>4</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>8</v>
@@ -839,11 +842,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -857,12 +860,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="17"/>
@@ -875,12 +878,12 @@
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="17"/>
@@ -888,7 +891,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>5</v>
@@ -897,10 +900,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="4"/>
@@ -915,12 +918,12 @@
         <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
@@ -933,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="4"/>
@@ -953,10 +956,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="4"/>
@@ -971,14 +974,14 @@
         <v>8</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J10" s="18"/>
     </row>
@@ -991,20 +994,20 @@
         <v>9</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>5</v>
@@ -1013,11 +1016,11 @@
         <v>10</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1031,12 +1034,12 @@
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="17"/>
@@ -1049,12 +1052,12 @@
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="17"/>
@@ -1067,12 +1070,12 @@
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
       <c r="G15" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="17"/>

--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Mylren\Documents\GitHub\Eng-Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65563CDC-5B3D-4C53-9F75-A93DEBFE6C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C026878-E031-4E39-AF08-C897AD95123F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A55B0A7-CAD9-48C3-AB1E-DE54A387BEEE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Externo</t>
   </si>
@@ -57,42 +57,6 @@
     <t>FA</t>
   </si>
   <si>
-    <t>Falha</t>
-  </si>
-  <si>
-    <t>Gerir orçamento</t>
-  </si>
-  <si>
-    <t>WEG envia orçamento para o cliente</t>
-  </si>
-  <si>
-    <t>Fornecer produto</t>
-  </si>
-  <si>
-    <t>Cliente faz o pagamento do orçamento solicitado</t>
-  </si>
-  <si>
-    <t>Cliente recebe produtos</t>
-  </si>
-  <si>
-    <t>WEG envia produtos/peças</t>
-  </si>
-  <si>
-    <t>Cliente cancela o pedido dos produtos/peças</t>
-  </si>
-  <si>
-    <t>Logística Reversa</t>
-  </si>
-  <si>
-    <t>Cliente solicita a troca de um ou mais produtos</t>
-  </si>
-  <si>
-    <t>WEG solicita o envio dos produtos</t>
-  </si>
-  <si>
-    <t>WEG analisa as peças</t>
-  </si>
-  <si>
     <t>Previsível*</t>
   </si>
   <si>
@@ -111,34 +75,106 @@
     <t>x(3)</t>
   </si>
   <si>
-    <t>x(4)</t>
-  </si>
-  <si>
     <t>x(11)</t>
   </si>
   <si>
-    <t>x(5)</t>
-  </si>
-  <si>
     <t>x(10)</t>
   </si>
   <si>
-    <t>WEG envia produtos</t>
-  </si>
-  <si>
-    <t>Cliente solicita orçamento</t>
-  </si>
-  <si>
-    <t>Cliente não faz o pagamento do orçamento solicitado</t>
-  </si>
-  <si>
-    <t>Cliente não recebe produtos</t>
-  </si>
-  <si>
     <t>x(6)</t>
   </si>
   <si>
-    <t>WEG orça os produtos solicitados</t>
+    <t>Gerir orçamentos</t>
+  </si>
+  <si>
+    <t>Cliente faz pedido de orçamento</t>
+  </si>
+  <si>
+    <t>Atendente calcula o orçamento e entrega ao Cliente</t>
+  </si>
+  <si>
+    <t>Atendente gera o boleto do pedido</t>
+  </si>
+  <si>
+    <t>Atendente recusa o pedido por falta de estoque</t>
+  </si>
+  <si>
+    <t>Cliente recusa o orçamento</t>
+  </si>
+  <si>
+    <t>FA1</t>
+  </si>
+  <si>
+    <t>FA2</t>
+  </si>
+  <si>
+    <t>Atender pedidos</t>
+  </si>
+  <si>
+    <t>Analista Administrativo solicita o extrato de pagamento</t>
+  </si>
+  <si>
+    <t>Analista Administrativo analisa o extrato recebido</t>
+  </si>
+  <si>
+    <t>Analista Administrativo envia um alerta de pedido não pago ao Cliente</t>
+  </si>
+  <si>
+    <t>Cliente recebe novo boleto</t>
+  </si>
+  <si>
+    <t>Gerenciar entrega de Pedidos</t>
+  </si>
+  <si>
+    <t>Estoquista prepara os pacotes para o envio</t>
+  </si>
+  <si>
+    <t>Transportadora coleta os pacotes</t>
+  </si>
+  <si>
+    <t>Atendente analisa o status da entrega</t>
+  </si>
+  <si>
+    <t>Atendente atualiza o endereço do Cliente para nova entrega</t>
+  </si>
+  <si>
+    <t>Logística reversa</t>
+  </si>
+  <si>
+    <t>Cliente solicita troca de peças</t>
+  </si>
+  <si>
+    <t>Mecânico analisa as peças recebidas</t>
+  </si>
+  <si>
+    <t>Estoquista prepara os pacotes para o novo envio</t>
+  </si>
+  <si>
+    <t>x(2)</t>
+  </si>
+  <si>
+    <t>x(7)</t>
+  </si>
+  <si>
+    <t>x(8)</t>
+  </si>
+  <si>
+    <t>x(12)</t>
+  </si>
+  <si>
+    <t>Estoquista recebe os produtos defeituosos</t>
+  </si>
+  <si>
+    <t>x(14)</t>
+  </si>
+  <si>
+    <t>x(15)</t>
+  </si>
+  <si>
+    <t>x(16)</t>
+  </si>
+  <si>
+    <t>x(17)</t>
   </si>
 </sst>
 </file>
@@ -240,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -356,11 +392,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -412,49 +531,97 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BF3D39-96D7-493A-95BA-18B1840FA236}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,22 +957,22 @@
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
@@ -813,40 +980,40 @@
         <v>4</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -854,92 +1021,96 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="22"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="17"/>
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="9">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>5</v>
+      <c r="A6" s="30"/>
+      <c r="B6" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="19">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="19">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="13"/>
+      <c r="D7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="19">
+      <c r="A8" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20">
         <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="4"/>
@@ -948,151 +1119,247 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="A9" s="38"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="20">
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="17"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="19">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>34</v>
+      <c r="D10" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="I10" s="17"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="19">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="20">
         <v>9</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="F11" s="13"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="17" t="s">
-        <v>36</v>
-      </c>
+      <c r="I11" s="17"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="25" t="s">
+    <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>10</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="4"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="20">
+      <c r="A13" s="42"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="19">
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="20">
+      <c r="A14" s="42"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="19">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="20">
+      <c r="A15" s="43"/>
+      <c r="B15" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="19">
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
       <c r="G15" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="20">
+        <v>14</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="20">
+        <v>15</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="20">
+        <v>16</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="20">
+        <v>17</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="49"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="20">
+        <v>18</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A3:A5"/>
+  <mergeCells count="12">
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Mylren\Documents\GitHub\Eng-Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C026878-E031-4E39-AF08-C897AD95123F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC54DAF-6AC6-4988-B718-8C26DDEAF878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A55B0A7-CAD9-48C3-AB1E-DE54A387BEEE}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>Atendente calcula o orçamento e entrega ao Cliente</t>
   </si>
   <si>
-    <t>Atendente gera o boleto do pedido</t>
-  </si>
-  <si>
     <t>Atendente recusa o pedido por falta de estoque</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>x(17)</t>
+  </si>
+  <si>
+    <t>Atendente recebe a resposta do Cliente</t>
   </si>
 </sst>
 </file>
@@ -537,52 +537,61 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,9 +601,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,22 +612,16 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,7 +941,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,22 +957,22 @@
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
@@ -999,10 +999,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9">
@@ -1021,8 +1021,8 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
@@ -1039,33 +1039,33 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="9">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="19">
         <v>4</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>23</v>
+      <c r="D6" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1077,18 +1077,18 @@
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="19">
         <v>5</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>24</v>
+      <c r="D7" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="4"/>
@@ -1097,17 +1097,17 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="20">
         <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>15</v>
@@ -1119,13 +1119,13 @@
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="20">
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1137,36 +1137,36 @@
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="20">
         <v>8</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>30</v>
+      <c r="D10" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
       <c r="G10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="20">
         <v>9</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="4"/>
@@ -1175,35 +1175,35 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="19">
         <v>10</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="19">
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>17</v>
@@ -1215,13 +1215,13 @@
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="19">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
@@ -1233,37 +1233,37 @@
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="19">
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
       <c r="G15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="20">
         <v>14</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="13" t="s">
@@ -1275,70 +1275,70 @@
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="20">
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="20">
         <v>16</v>
       </c>
-      <c r="D18" s="35" t="s">
-        <v>39</v>
+      <c r="D18" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="17"/>
       <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="20">
         <v>17</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="17"/>
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="20">
         <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="4"/>
@@ -1348,11 +1348,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B8:B9"/>
@@ -1360,6 +1355,11 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Mylren\Documents\GitHub\Eng-Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC54DAF-6AC6-4988-B718-8C26DDEAF878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451E1059-7FC5-4576-8C18-DB1EA7472830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A55B0A7-CAD9-48C3-AB1E-DE54A387BEEE}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{0A55B0A7-CAD9-48C3-AB1E-DE54A387BEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Externo</t>
   </si>
@@ -93,18 +93,6 @@
     <t>Atendente calcula o orçamento e entrega ao Cliente</t>
   </si>
   <si>
-    <t>Atendente recusa o pedido por falta de estoque</t>
-  </si>
-  <si>
-    <t>Cliente recusa o orçamento</t>
-  </si>
-  <si>
-    <t>FA1</t>
-  </si>
-  <si>
-    <t>FA2</t>
-  </si>
-  <si>
     <t>Atender pedidos</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>Analista Administrativo analisa o extrato recebido</t>
   </si>
   <si>
-    <t>Analista Administrativo envia um alerta de pedido não pago ao Cliente</t>
-  </si>
-  <si>
     <t>Cliente recebe novo boleto</t>
   </si>
   <si>
@@ -132,9 +117,6 @@
     <t>Atendente analisa o status da entrega</t>
   </si>
   <si>
-    <t>Atendente atualiza o endereço do Cliente para nova entrega</t>
-  </si>
-  <si>
     <t>Logística reversa</t>
   </si>
   <si>
@@ -175,6 +157,12 @@
   </si>
   <si>
     <t>Atendente recebe a resposta do Cliente</t>
+  </si>
+  <si>
+    <t>Analista Administrativo envia um alerta de pedido não pago</t>
+  </si>
+  <si>
+    <t>Atendente atualiza o endereço do Cliente</t>
   </si>
 </sst>
 </file>
@@ -479,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -539,9 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -938,16 +923,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BF3D39-96D7-493A-95BA-18B1840FA236}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" customWidth="1"/>
     <col min="5" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="9" width="9.85546875" customWidth="1"/>
   </cols>
@@ -957,22 +942,22 @@
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
@@ -999,10 +984,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9">
@@ -1021,8 +1006,8 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
@@ -1040,133 +1025,133 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="9">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="19">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20">
         <v>4</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="13"/>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="19">
+      <c r="A7" s="40"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="20">
         <v>5</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>40</v>
-      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>5</v>
+      <c r="A8" s="40"/>
+      <c r="B8" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="C8" s="20">
         <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>15</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E8" s="12"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
-      <c r="B9" s="39"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="20">
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="17"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="20">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19">
         <v>8</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="12"/>
+      <c r="D10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="20">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="19">
         <v>9</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>30</v>
+      <c r="D11" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="4"/>
@@ -1174,23 +1159,19 @@
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>5</v>
-      </c>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="19">
         <v>10</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="E12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="17"/>
@@ -1198,95 +1179,95 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
-      <c r="B13" s="31"/>
+      <c r="B13" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="19">
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="19">
+      <c r="A14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="20">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>34</v>
+      <c r="D14" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="20">
         <v>13</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="12"/>
+      <c r="D15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>5</v>
-      </c>
+      <c r="A16" s="24"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="20">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4"/>
+      <c r="D16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="20">
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="17"/>
@@ -1298,68 +1279,32 @@
       <c r="C18" s="20">
         <v>16</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="13"/>
+      <c r="D18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="17"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="20">
-        <v>17</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="20">
-        <v>18</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\Mylren\Documents\GitHub\Eng-Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451E1059-7FC5-4576-8C18-DB1EA7472830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4DEF6D-16B6-4F74-B5C3-35D12D4F7C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{0A55B0A7-CAD9-48C3-AB1E-DE54A387BEEE}"/>
+    <workbookView xWindow="7125" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{0A55B0A7-CAD9-48C3-AB1E-DE54A387BEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>x(3)</t>
   </si>
   <si>
-    <t>x(11)</t>
-  </si>
-  <si>
     <t>x(10)</t>
   </si>
   <si>
@@ -90,21 +87,12 @@
     <t>Cliente faz pedido de orçamento</t>
   </si>
   <si>
-    <t>Atendente calcula o orçamento e entrega ao Cliente</t>
-  </si>
-  <si>
     <t>Atender pedidos</t>
   </si>
   <si>
     <t>Analista Administrativo solicita o extrato de pagamento</t>
   </si>
   <si>
-    <t>Analista Administrativo analisa o extrato recebido</t>
-  </si>
-  <si>
-    <t>Cliente recebe novo boleto</t>
-  </si>
-  <si>
     <t>Gerenciar entrega de Pedidos</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>Transportadora coleta os pacotes</t>
   </si>
   <si>
-    <t>Atendente analisa o status da entrega</t>
-  </si>
-  <si>
     <t>Logística reversa</t>
   </si>
   <si>
@@ -132,37 +117,52 @@
     <t>x(2)</t>
   </si>
   <si>
-    <t>x(7)</t>
-  </si>
-  <si>
     <t>x(8)</t>
   </si>
   <si>
     <t>x(12)</t>
   </si>
   <si>
-    <t>Estoquista recebe os produtos defeituosos</t>
-  </si>
-  <si>
     <t>x(14)</t>
   </si>
   <si>
     <t>x(15)</t>
   </si>
   <si>
-    <t>x(16)</t>
-  </si>
-  <si>
-    <t>x(17)</t>
-  </si>
-  <si>
-    <t>Atendente recebe a resposta do Cliente</t>
-  </si>
-  <si>
     <t>Analista Administrativo envia um alerta de pedido não pago</t>
   </si>
   <si>
-    <t>Atendente atualiza o endereço do Cliente</t>
+    <t>Atendente calcula o orçamento</t>
+  </si>
+  <si>
+    <t>Cliente envia resposta ao orçamento</t>
+  </si>
+  <si>
+    <t>Banco envia o extrato de pagamento</t>
+  </si>
+  <si>
+    <t>x(4)</t>
+  </si>
+  <si>
+    <t>Cliente pede novo boleto</t>
+  </si>
+  <si>
+    <t>x(5)</t>
+  </si>
+  <si>
+    <t>Transportadora envia o status da entrega</t>
+  </si>
+  <si>
+    <t>x(9)</t>
+  </si>
+  <si>
+    <t>Cliente envia novo endereço de entrega</t>
+  </si>
+  <si>
+    <t>Transportadora entrega os produtos defeituosos</t>
+  </si>
+  <si>
+    <t>x(13)</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -531,6 +531,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -923,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BF3D39-96D7-493A-95BA-18B1840FA236}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,22 +943,22 @@
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
@@ -984,17 +985,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="13" t="s">
@@ -1006,13 +1007,13 @@
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9">
         <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -1024,94 +1025,94 @@
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="9">
         <v>3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="20">
         <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="17"/>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="20">
         <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="20">
         <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
       <c r="G8" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="20">
         <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="4"/>
@@ -1120,38 +1121,38 @@
       <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="19">
         <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="17"/>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="19">
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="4"/>
@@ -1160,25 +1161,25 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="19">
         <v>10</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="12"/>
+        <v>41</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="17"/>
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="21" t="s">
         <v>9</v>
       </c>
@@ -1186,29 +1187,29 @@
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="20">
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13" t="s">
@@ -1220,76 +1221,79 @@
       <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="20">
         <v>13</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="20">
         <v>14</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="20">
         <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="20">
         <v>16</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="17"/>
       <c r="J18" s="18"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
